--- a/templates/report/weekly.xlsx
+++ b/templates/report/weekly.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EF86B3-7EEF-4098-A778-28F38675F77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53844692-4108-4DC8-9E99-375BC0ADF907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weekly!$A$1:$AT$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1316,6 +1319,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AT1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates/report/weekly.xlsx
+++ b/templates/report/weekly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53844692-4108-4DC8-9E99-375BC0ADF907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BD7C33-C4EE-47C2-A6A5-2541F3AECA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weekly!$A$1:$AT$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weekly!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,20 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>¿Nacional?</t>
   </si>
   <si>
-    <t>Descuento</t>
-  </si>
-  <si>
     <t>Consumos incluidos</t>
   </si>
   <si>
-    <t>Tipo de reserva</t>
-  </si>
-  <si>
     <t>Codigo de recurso</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>¿?</t>
-  </si>
-  <si>
     <t>Customer.Name</t>
   </si>
   <si>
@@ -170,15 +161,9 @@
     <t>Resource.Building.District.Location.Code</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
     <t>Reserva hecha por</t>
   </si>
   <si>
@@ -221,9 +206,6 @@
     <t>Fecha pre reserva</t>
   </si>
   <si>
-    <t>Reserva conf fin mes</t>
-  </si>
-  <si>
     <t>Días antelación solicitud reservas vs llegada</t>
   </si>
   <si>
@@ -266,28 +248,16 @@
     <t>Tipo habitación</t>
   </si>
   <si>
-    <t>Tipo estudios</t>
-  </si>
-  <si>
-    <t>Confirmed rate</t>
-  </si>
-  <si>
     <t>Total renta estancia (Confirmed rate)</t>
   </si>
   <si>
     <t>Rack rate</t>
-  </si>
-  <si>
-    <t>Justificación descuentos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0%"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +287,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,22 +316,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF595959"/>
       </patternFill>
     </fill>
   </fills>
@@ -433,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -453,16 +413,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -472,9 +426,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -791,535 +742,463 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.42578125" style="16" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" style="15" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.42578125" style="16" customWidth="1"/>
-    <col min="22" max="23" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="48.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="40.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="36" width="13.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="11" style="15" customWidth="1"/>
-    <col min="41" max="41" width="17.28515625" style="15" customWidth="1"/>
-    <col min="42" max="46" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.42578125" style="13" customWidth="1"/>
+    <col min="20" max="21" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="48.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" style="12" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" style="12" customWidth="1"/>
+    <col min="35" max="39" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>10</v>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR3" s="8" t="s">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="e">
+        <f ca="1">IF(AI4&lt;&gt;"",ROUNDDOWN((NOW()-DATEVALUE(AI4))/365,0),"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="str">
+        <f t="shared" ref="K4" si="0">IF(I4="España","NATIONAL","INTERNATIONAL")</f>
+        <v>INTERNATIONAL</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AS3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="e">
-        <f ca="1">IF(AP4&lt;&gt;"",ROUNDDOWN((NOW()-DATEVALUE(AP4))/365,0),"")</f>
+      <c r="O4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="9" t="e">
+        <f>P4-O4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="str">
-        <f t="shared" ref="L4" si="0">IF(J4="España","NATIONAL","INTERNATIONAL")</f>
-        <v>INTERNATIONAL</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="11" t="e">
-        <f t="shared" ref="S4" si="1">Q4-P4</f>
+      <c r="R4" s="10" t="str">
+        <f t="shared" ref="R4:S4" si="1">IF(AL4&lt;&gt;"",AL4,AJ4)</f>
+        <v>date</v>
+      </c>
+      <c r="S4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>date</v>
+      </c>
+      <c r="T4" s="9" t="e">
+        <f t="shared" ref="T4" si="2">S4-R4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T4" s="12" t="str">
-        <f t="shared" ref="T4:U4" si="2">IF(AS4&lt;&gt;"",AS4,AQ4)</f>
-        <v>date</v>
-      </c>
-      <c r="U4" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>date</v>
-      </c>
-      <c r="V4" s="11" t="e">
-        <f t="shared" ref="V4" si="3">U4-T4</f>
+      <c r="U4" s="9" t="e">
+        <f t="shared" ref="U4" si="3">MROUND(T4/30,0.5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W4" s="11" t="e">
-        <f t="shared" ref="W4" si="4">MROUND(V4/30,0.5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11" t="str">
-        <f t="shared" ref="AA4" si="5">MID(AO4,8,5)</f>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9" t="str">
+        <f t="shared" ref="Y4" si="4">MID(AH4,8,5)</f>
         <v/>
       </c>
-      <c r="AB4" s="11" t="str">
-        <f t="shared" ref="AB4" si="6">MID(AO4,14,9)</f>
+      <c r="Z4" s="9" t="str">
+        <f t="shared" ref="Z4" si="5">MID(AH4,14,9)</f>
         <v/>
       </c>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT4" s="11" t="s">
-        <v>42</v>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AT1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AM1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>